--- a/Analytics/I1/Bookings_i1.xlsx
+++ b/Analytics/I1/Bookings_i1.xlsx
@@ -82,63 +82,63 @@
     <t>20</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
   </si>
   <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
     <t>Atalanta</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
     <t>SUM("TBookings")</t>
   </si>
   <si>
-    <t>SUM("TBookings") / 38</t>
+    <t>SUM("TBookings") / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1110.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1100.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1100.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1070.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1030.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>975.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>975.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>950.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>925.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>885.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>860.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>855.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>840.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>835.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>830.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>825.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>700.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>690.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>625.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>610.0</v>
+        <v>150.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>1205.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>1045.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>1025.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>990.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>930.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>900.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>885.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>880.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>880.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>865.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>865.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>845.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>815.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>800.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>745.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>740.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>715.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>695.0</v>
+        <v>140.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>2135.0</v>
+        <v>740.0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.18421052631579</v>
+        <v>67.27272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -717,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>2090.0</v>
+        <v>650.0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.0</v>
+        <v>59.09090909090909</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>2060.0</v>
+        <v>645.0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.21052631578947</v>
+        <v>58.63636363636363</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>2040.0</v>
+        <v>630.0</v>
       </c>
       <c r="D5" t="n">
-        <v>53.68421052631579</v>
+        <v>57.27272727272727</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>2020.0</v>
+        <v>605.0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.1578947368421</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>1930.0</v>
+        <v>595.0</v>
       </c>
       <c r="D7" t="n">
-        <v>50.78947368421053</v>
+        <v>54.09090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>1910.0</v>
+        <v>575.0</v>
       </c>
       <c r="D8" t="n">
-        <v>50.26315789473684</v>
+        <v>52.27272727272727</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1795.0</v>
+        <v>570.0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.23684210526316</v>
+        <v>51.81818181818182</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>1790.0</v>
+        <v>545.0</v>
       </c>
       <c r="D10" t="n">
-        <v>47.10526315789474</v>
+        <v>49.54545454545455</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +829,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>1785.0</v>
+        <v>540.0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.973684210526315</v>
+        <v>49.09090909090909</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>1765.0</v>
+        <v>525.0</v>
       </c>
       <c r="D12" t="n">
-        <v>46.44736842105263</v>
+        <v>47.72727272727273</v>
       </c>
     </row>
     <row r="13">
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>1760.0</v>
+        <v>500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.31578947368421</v>
+        <v>45.45454545454545</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1740.0</v>
+        <v>495.0</v>
       </c>
       <c r="D14" t="n">
-        <v>45.78947368421053</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>1695.0</v>
+        <v>490.0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.60526315789474</v>
+        <v>44.54545454545455</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>1690.0</v>
+        <v>460.0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.473684210526315</v>
+        <v>41.81818181818182</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>1620.0</v>
+        <v>410.0</v>
       </c>
       <c r="D17" t="n">
-        <v>42.63157894736842</v>
+        <v>37.27272727272727</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>1580.0</v>
+        <v>405.0</v>
       </c>
       <c r="D18" t="n">
-        <v>41.578947368421055</v>
+        <v>36.81818181818182</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>1445.0</v>
+        <v>405.0</v>
       </c>
       <c r="D19" t="n">
-        <v>38.026315789473685</v>
+        <v>36.81818181818182</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1410.0</v>
+        <v>395.0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.10526315789474</v>
+        <v>35.90909090909091</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>1320.0</v>
+        <v>370.0</v>
       </c>
       <c r="D21" t="n">
-        <v>34.73684210526316</v>
+        <v>33.63636363636363</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/Bookings_i1.xlsx
+++ b/Analytics/I1/Bookings_i1.xlsx
@@ -82,61 +82,61 @@
     <t>20</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Lecce</t>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>Monza</t>
   </si>
   <si>
+    <t>Milan</t>
+  </si>
+  <si>
     <t>Verona</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Milan</t>
+    <t>Roma</t>
   </si>
   <si>
     <t>Torino</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Udinese</t>
+    <t>Empoli</t>
   </si>
   <si>
     <t>Inter</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Empoli</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>390.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>390.0</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>340.0</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>330.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>330.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>285.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>280.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>275.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>265.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>255.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>250.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>230.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>225.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>220.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>205.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>200.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>190.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>155.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>150.0</v>
+        <v>190.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>445.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>350.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>330.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>325.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>320.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>315.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>300.0</v>
+        <v>395.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>300.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>300.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>260.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>255.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>240.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>235.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>210.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>210.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>180.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>165.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>150.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>140.0</v>
+        <v>195.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>740.0</v>
+        <v>1005.0</v>
       </c>
       <c r="D2" t="n">
-        <v>67.27272727272727</v>
+        <v>91.36363636363636</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>650.0</v>
+        <v>845.0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.09090909090909</v>
+        <v>76.81818181818181</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>645.0</v>
+        <v>830.0</v>
       </c>
       <c r="D4" t="n">
-        <v>58.63636363636363</v>
+        <v>75.45454545454545</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>630.0</v>
+        <v>805.0</v>
       </c>
       <c r="D5" t="n">
-        <v>57.27272727272727</v>
+        <v>73.18181818181819</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>605.0</v>
+        <v>805.0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.0</v>
+        <v>73.18181818181819</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>595.0</v>
+        <v>780.0</v>
       </c>
       <c r="D7" t="n">
-        <v>54.09090909090909</v>
+        <v>70.9090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>575.0</v>
+        <v>770.0</v>
       </c>
       <c r="D8" t="n">
-        <v>52.27272727272727</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>570.0</v>
+        <v>765.0</v>
       </c>
       <c r="D9" t="n">
-        <v>51.81818181818182</v>
+        <v>69.54545454545455</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>545.0</v>
+        <v>740.0</v>
       </c>
       <c r="D10" t="n">
-        <v>49.54545454545455</v>
+        <v>67.27272727272727</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>540.0</v>
+        <v>740.0</v>
       </c>
       <c r="D11" t="n">
-        <v>49.09090909090909</v>
+        <v>67.27272727272727</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>525.0</v>
+        <v>710.0</v>
       </c>
       <c r="D12" t="n">
-        <v>47.72727272727273</v>
+        <v>64.54545454545455</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>500.0</v>
+        <v>705.0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.45454545454545</v>
+        <v>64.0909090909091</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>495.0</v>
+        <v>705.0</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0</v>
+        <v>64.0909090909091</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>490.0</v>
+        <v>675.0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.54545454545455</v>
+        <v>61.36363636363637</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>460.0</v>
+        <v>675.0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.81818181818182</v>
+        <v>61.36363636363637</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0</v>
+        <v>650.0</v>
       </c>
       <c r="D17" t="n">
-        <v>37.27272727272727</v>
+        <v>59.09090909090909</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>405.0</v>
+        <v>605.0</v>
       </c>
       <c r="D18" t="n">
-        <v>36.81818181818182</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>405.0</v>
+        <v>575.0</v>
       </c>
       <c r="D19" t="n">
-        <v>36.81818181818182</v>
+        <v>52.27272727272727</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>395.0</v>
+        <v>575.0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.90909090909091</v>
+        <v>52.27272727272727</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>370.0</v>
+        <v>440.0</v>
       </c>
       <c r="D21" t="n">
-        <v>33.63636363636363</v>
+        <v>40.0</v>
       </c>
     </row>
   </sheetData>
